--- a/APPSHEET/EXCEL/lista_producto_melos1.xlsx
+++ b/APPSHEET/EXCEL/lista_producto_melos1.xlsx
@@ -188,7 +188,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">73</t>
+            <t xml:space="preserve">78</t>
           </r>
         </is>
       </c>
@@ -224,7 +224,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">ADICIONAL</t>
+            <t xml:space="preserve">DOBLE SUIT NORMAL</t>
           </r>
         </is>
       </c>
@@ -242,7 +242,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">50000</t>
           </r>
         </is>
       </c>
@@ -253,7 +253,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">Ñ7841434000012</t>
+            <t xml:space="preserve">77</t>
           </r>
         </is>
       </c>
@@ -262,7 +262,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">AGUA</t>
+            <t xml:space="preserve">ADICIONAL</t>
           </r>
         </is>
       </c>
@@ -271,7 +271,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">SISTEMA</t>
           </r>
         </is>
       </c>
@@ -289,7 +289,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">AGUA.M SIN GAS 500ML</t>
+            <t xml:space="preserve">DOBLE SUIT  VIP</t>
           </r>
         </is>
       </c>
@@ -298,7 +298,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">58</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -307,7 +307,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4000</t>
+            <t xml:space="preserve">80000</t>
           </r>
         </is>
       </c>
@@ -318,7 +318,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7840058001443</t>
+            <t xml:space="preserve">74</t>
           </r>
         </is>
       </c>
@@ -327,7 +327,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">AGUA</t>
+            <t xml:space="preserve">ADICIONAL</t>
           </r>
         </is>
       </c>
@@ -336,7 +336,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">SISTEMA</t>
           </r>
         </is>
       </c>
@@ -354,7 +354,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">AGUA TONICA 500ML</t>
+            <t xml:space="preserve">DOBLE NORMAL</t>
           </r>
         </is>
       </c>
@@ -363,7 +363,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -372,7 +372,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6000</t>
+            <t xml:space="preserve">40000</t>
           </r>
         </is>
       </c>
@@ -383,7 +383,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7840058002105</t>
+            <t xml:space="preserve">75</t>
           </r>
         </is>
       </c>
@@ -392,7 +392,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">AGUA</t>
+            <t xml:space="preserve">ADICIONAL</t>
           </r>
         </is>
       </c>
@@ -401,7 +401,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DASANI</t>
+            <t xml:space="preserve">SISTEMA</t>
           </r>
         </is>
       </c>
@@ -419,7 +419,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">AGUA CON GAS</t>
+            <t xml:space="preserve">DOBLE ECONOMICO</t>
           </r>
         </is>
       </c>
@@ -428,7 +428,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -437,7 +437,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">25000</t>
           </r>
         </is>
       </c>
@@ -448,7 +448,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7893218003603</t>
+            <t xml:space="preserve">73</t>
           </r>
         </is>
       </c>
@@ -457,7 +457,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CERVEZA</t>
+            <t xml:space="preserve">ADICIONAL</t>
           </r>
         </is>
       </c>
@@ -466,7 +466,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SMIRNOFF</t>
+            <t xml:space="preserve">SISTEMA</t>
           </r>
         </is>
       </c>
@@ -484,7 +484,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SMIRNOFF</t>
+            <t xml:space="preserve">ADICIONAL</t>
           </r>
         </is>
       </c>
@@ -493,7 +493,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -502,7 +502,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -513,7 +513,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7891149107704</t>
+            <t xml:space="preserve">Ñ7841434000012</t>
           </r>
         </is>
       </c>
@@ -522,7 +522,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CERVEZA</t>
+            <t xml:space="preserve">AGUA</t>
           </r>
         </is>
       </c>
@@ -531,7 +531,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SKOLL</t>
+            <t xml:space="preserve">VARIOS</t>
           </r>
         </is>
       </c>
@@ -549,7 +549,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SKOLL ABRE FACIL 275CM</t>
+            <t xml:space="preserve">AGUA.M SIN GAS 500ML</t>
           </r>
         </is>
       </c>
@@ -558,7 +558,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">19</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -567,7 +567,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8000</t>
+            <t xml:space="preserve">4000</t>
           </r>
         </is>
       </c>
@@ -578,7 +578,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7891149103102</t>
+            <t xml:space="preserve">7840058001443</t>
           </r>
         </is>
       </c>
@@ -587,7 +587,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CERVEZA</t>
+            <t xml:space="preserve">AGUA</t>
           </r>
         </is>
       </c>
@@ -596,7 +596,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SKOLL</t>
+            <t xml:space="preserve">VARIOS</t>
           </r>
         </is>
       </c>
@@ -614,7 +614,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SKOL 269ML</t>
+            <t xml:space="preserve">AGUA TONICA 500ML</t>
           </r>
         </is>
       </c>
@@ -623,7 +623,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">55</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -632,7 +632,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -643,7 +643,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">034100005542</t>
+            <t xml:space="preserve">7840058002105</t>
           </r>
         </is>
       </c>
@@ -652,7 +652,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CERVEZA</t>
+            <t xml:space="preserve">AGUA</t>
           </r>
         </is>
       </c>
@@ -661,7 +661,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MILLER</t>
+            <t xml:space="preserve">DASANI</t>
           </r>
         </is>
       </c>
@@ -670,7 +670,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LATA 350ML</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -679,7 +679,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MILLER LATA</t>
+            <t xml:space="preserve">AGUA CON GAS</t>
           </r>
         </is>
       </c>
@@ -688,7 +688,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">28</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
@@ -697,7 +697,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8000</t>
+            <t xml:space="preserve">5000</t>
           </r>
         </is>
       </c>
@@ -708,7 +708,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">345621</t>
+            <t xml:space="preserve">7891149107704</t>
           </r>
         </is>
       </c>
@@ -726,7 +726,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MILLER</t>
+            <t xml:space="preserve">SKOLL</t>
           </r>
         </is>
       </c>
@@ -735,7 +735,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BOT.1/4</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -744,7 +744,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MILLER BOTELLA</t>
+            <t xml:space="preserve">SKOLL ABRE FACIL 275CM</t>
           </r>
         </is>
       </c>
@@ -753,7 +753,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">28</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -762,7 +762,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9000</t>
+            <t xml:space="preserve">8000</t>
           </r>
         </is>
       </c>
@@ -773,7 +773,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8712000030599</t>
+            <t xml:space="preserve">7891149103102</t>
           </r>
         </is>
       </c>
@@ -791,7 +791,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HEINEKEN PONY</t>
+            <t xml:space="preserve">SKOLL</t>
           </r>
         </is>
       </c>
@@ -809,7 +809,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HEINEKEN</t>
+            <t xml:space="preserve">SKOL 269ML</t>
           </r>
         </is>
       </c>
@@ -818,7 +818,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
@@ -827,7 +827,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9000</t>
+            <t xml:space="preserve">5000</t>
           </r>
         </is>
       </c>
@@ -838,7 +838,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">75032715</t>
+            <t xml:space="preserve">034100005542</t>
           </r>
         </is>
       </c>
@@ -856,7 +856,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CORONA</t>
+            <t xml:space="preserve">MILLER</t>
           </r>
         </is>
       </c>
@@ -865,7 +865,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">UNIDAD</t>
+            <t xml:space="preserve">LATA 350ML</t>
           </r>
         </is>
       </c>
@@ -874,7 +874,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CORONA BOTELLA 355ML</t>
+            <t xml:space="preserve">MILLER LATA</t>
           </r>
         </is>
       </c>
@@ -883,7 +883,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">19</t>
+            <t xml:space="preserve">14</t>
           </r>
         </is>
       </c>
@@ -892,7 +892,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9000</t>
+            <t xml:space="preserve">8000</t>
           </r>
         </is>
       </c>
@@ -903,7 +903,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7840050003605</t>
+            <t xml:space="preserve">8712000030599</t>
           </r>
         </is>
       </c>
@@ -921,7 +921,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BUD66</t>
+            <t xml:space="preserve">HEINEKEN PONY</t>
           </r>
         </is>
       </c>
@@ -939,7 +939,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BUD 66 310CM</t>
+            <t xml:space="preserve">HEINEKEN</t>
           </r>
         </is>
       </c>
@@ -948,7 +948,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">30</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -957,7 +957,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6000</t>
+            <t xml:space="preserve">9000</t>
           </r>
         </is>
       </c>
@@ -968,7 +968,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7840050002561</t>
+            <t xml:space="preserve">75032715</t>
           </r>
         </is>
       </c>
@@ -986,7 +986,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BRAHMA</t>
+            <t xml:space="preserve">CORONA</t>
           </r>
         </is>
       </c>
@@ -995,7 +995,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LATA 269 ML</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -1004,7 +1004,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BRAHMA SUBZERO</t>
+            <t xml:space="preserve">CORONA BOTELLA 355ML</t>
           </r>
         </is>
       </c>
@@ -1013,7 +1013,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">44</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1022,7 +1022,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4000</t>
+            <t xml:space="preserve">9000</t>
           </r>
         </is>
       </c>
@@ -1033,7 +1033,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7622201149222</t>
+            <t xml:space="preserve">7840050003605</t>
           </r>
         </is>
       </c>
@@ -1042,7 +1042,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CHICLE</t>
+            <t xml:space="preserve">CERVEZA</t>
           </r>
         </is>
       </c>
@@ -1051,7 +1051,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BELDENT</t>
+            <t xml:space="preserve">BUD66</t>
           </r>
         </is>
       </c>
@@ -1069,7 +1069,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BELDEN</t>
+            <t xml:space="preserve">BUD 66 310CM</t>
           </r>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">11</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
@@ -1087,7 +1087,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -1098,7 +1098,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">78411098</t>
+            <t xml:space="preserve">7840050002561</t>
           </r>
         </is>
       </c>
@@ -1107,7 +1107,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CIGARRILLOS</t>
+            <t xml:space="preserve">CERVEZA</t>
           </r>
         </is>
       </c>
@@ -1116,7 +1116,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PALERMO DUO</t>
+            <t xml:space="preserve">BRAHMA</t>
           </r>
         </is>
       </c>
@@ -1125,7 +1125,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">UNIDAD</t>
+            <t xml:space="preserve">LATA 269 ML</t>
           </r>
         </is>
       </c>
@@ -1134,7 +1134,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PALERMO</t>
+            <t xml:space="preserve">BRAHMA SUBZERO</t>
           </r>
         </is>
       </c>
@@ -1143,7 +1143,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">31</t>
+            <t xml:space="preserve">24</t>
           </r>
         </is>
       </c>
@@ -1152,7 +1152,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">4000</t>
           </r>
         </is>
       </c>
@@ -1163,7 +1163,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">78420854</t>
+            <t xml:space="preserve">77969071</t>
           </r>
         </is>
       </c>
@@ -1172,7 +1172,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CIGARRILLOS</t>
+            <t xml:space="preserve">CHICLE</t>
           </r>
         </is>
       </c>
@@ -1181,7 +1181,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARLBORO</t>
+            <t xml:space="preserve">BELDENT</t>
           </r>
         </is>
       </c>
@@ -1199,7 +1199,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MARLBORO 10</t>
+            <t xml:space="preserve">BELDENT MENTA</t>
           </r>
         </is>
       </c>
@@ -1208,7 +1208,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -1217,7 +1217,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">3000</t>
           </r>
         </is>
       </c>
@@ -1273,7 +1273,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1338,7 +1338,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">9</t>
           </r>
         </is>
       </c>
@@ -1358,7 +1358,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">14</t>
+            <t xml:space="preserve">78409637</t>
           </r>
         </is>
       </c>
@@ -1394,7 +1394,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">KENT 10 NORMAL</t>
+            <t xml:space="preserve">KENT 20 COMBERTIBLE </t>
           </r>
         </is>
       </c>
@@ -1403,7 +1403,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -1412,7 +1412,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">12000</t>
           </r>
         </is>
       </c>
@@ -1423,7 +1423,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">78410138</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
@@ -1459,7 +1459,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">KENT 10 COMBERTIBLE</t>
+            <t xml:space="preserve">KENT 20</t>
           </r>
         </is>
       </c>
@@ -1468,7 +1468,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1477,7 +1477,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">12000</t>
           </r>
         </is>
       </c>
@@ -1488,7 +1488,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">49</t>
+            <t xml:space="preserve">14</t>
           </r>
         </is>
       </c>
@@ -1524,7 +1524,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">ENCENDEDOR</t>
+            <t xml:space="preserve">KENT 10 NORMAL</t>
           </r>
         </is>
       </c>
@@ -1533,7 +1533,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
@@ -1542,7 +1542,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -1553,7 +1553,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7790580716707</t>
+            <t xml:space="preserve">78410138</t>
           </r>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">COMESTIBLES</t>
+            <t xml:space="preserve">CIGARRILLOS</t>
           </r>
         </is>
       </c>
@@ -1571,7 +1571,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">ARCOR</t>
+            <t xml:space="preserve">KENT</t>
           </r>
         </is>
       </c>
@@ -1589,7 +1589,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SALADIX</t>
+            <t xml:space="preserve">KENT 10 COMBERTIBLE</t>
           </r>
         </is>
       </c>
@@ -1598,7 +1598,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -1607,7 +1607,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -1618,7 +1618,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7896004006482</t>
+            <t xml:space="preserve">49</t>
           </r>
         </is>
       </c>
@@ -1627,7 +1627,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">COMESTIBLES</t>
+            <t xml:space="preserve">CIGARRILLOS</t>
           </r>
         </is>
       </c>
@@ -1636,7 +1636,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PRINGLES</t>
+            <t xml:space="preserve">KENT</t>
           </r>
         </is>
       </c>
@@ -1654,7 +1654,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PAPA FRITA GRANDE 114GR</t>
+            <t xml:space="preserve">ENCENDEDOR</t>
           </r>
         </is>
       </c>
@@ -1663,7 +1663,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5</t>
+            <t xml:space="preserve">10</t>
           </r>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">18000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -1683,7 +1683,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">038000846731</t>
+            <t xml:space="preserve">7891962036991</t>
           </r>
         </is>
       </c>
@@ -1701,7 +1701,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PRINGLES</t>
+            <t xml:space="preserve">BAUDUCCO</t>
           </r>
         </is>
       </c>
@@ -1719,7 +1719,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PAPA FRITA 37G</t>
+            <t xml:space="preserve">WAFER 140G</t>
           </r>
         </is>
       </c>
@@ -1728,7 +1728,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1737,7 +1737,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -1748,7 +1748,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">78938816</t>
+            <t xml:space="preserve">7790580697303</t>
           </r>
         </is>
       </c>
@@ -1766,7 +1766,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HALLS</t>
+            <t xml:space="preserve">SALADIX</t>
           </r>
         </is>
       </c>
@@ -1784,7 +1784,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HALLS</t>
+            <t xml:space="preserve">SALADIX HORNEADO</t>
           </r>
         </is>
       </c>
@@ -1793,7 +1793,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">24</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1802,7 +1802,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3000</t>
+            <t xml:space="preserve">8000</t>
           </r>
         </is>
       </c>
@@ -1813,7 +1813,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">57</t>
+            <t xml:space="preserve">7790580716707</t>
           </r>
         </is>
       </c>
@@ -1831,7 +1831,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">ARCOR</t>
           </r>
         </is>
       </c>
@@ -1849,7 +1849,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">GALLETITAS</t>
+            <t xml:space="preserve">SALADIX</t>
           </r>
         </is>
       </c>
@@ -1858,7 +1858,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
@@ -1878,7 +1878,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7891008169218</t>
+            <t xml:space="preserve">7891000241295</t>
           </r>
         </is>
       </c>
@@ -1896,7 +1896,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">GAROTO</t>
+            <t xml:space="preserve">PASSATEMPO</t>
           </r>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CHOCOBARRA GAROTO 90G</t>
+            <t xml:space="preserve">PASSATEMPO 130G</t>
           </r>
         </is>
       </c>
@@ -1923,7 +1923,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1932,7 +1932,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">5000</t>
           </r>
         </is>
       </c>
@@ -1943,7 +1943,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">77958921</t>
+            <t xml:space="preserve">7896004006482</t>
           </r>
         </is>
       </c>
@@ -1961,7 +1961,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BOMBOM</t>
+            <t xml:space="preserve">PRINGLES</t>
           </r>
         </is>
       </c>
@@ -1979,7 +1979,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BONBOM  X 3</t>
+            <t xml:space="preserve">PAPA FRITA GRANDE 114GR</t>
           </r>
         </is>
       </c>
@@ -1988,7 +1988,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -1997,7 +1997,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">18000</t>
           </r>
         </is>
       </c>
@@ -2008,7 +2008,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7622300807399</t>
+            <t xml:space="preserve">038000846731</t>
           </r>
         </is>
       </c>
@@ -2026,7 +2026,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BIS</t>
+            <t xml:space="preserve">PRINGLES</t>
           </r>
         </is>
       </c>
@@ -2044,7 +2044,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BIS 126G</t>
+            <t xml:space="preserve">PAPA FRITA 37G</t>
           </r>
         </is>
       </c>
@@ -2053,7 +2053,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
@@ -2073,7 +2073,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7790895643835</t>
+            <t xml:space="preserve">ygyug</t>
           </r>
         </is>
       </c>
@@ -2091,7 +2091,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">ADES</t>
+            <t xml:space="preserve">MARILAN</t>
           </r>
         </is>
       </c>
@@ -2109,7 +2109,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">ADES</t>
+            <t xml:space="preserve">MAIZENA 170G</t>
           </r>
         </is>
       </c>
@@ -2118,7 +2118,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2127,7 +2127,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">5000</t>
           </r>
         </is>
       </c>
@@ -2138,7 +2138,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7840058002877</t>
+            <t xml:space="preserve">7840042000162</t>
           </r>
         </is>
       </c>
@@ -2147,7 +2147,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">ENERGIZANTE</t>
+            <t xml:space="preserve">COMESTIBLES</t>
           </r>
         </is>
       </c>
@@ -2156,7 +2156,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">POWER ADE</t>
+            <t xml:space="preserve">LACTOLANDA</t>
           </r>
         </is>
       </c>
@@ -2174,7 +2174,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">POWERADE 500ML</t>
+            <t xml:space="preserve">LECHE</t>
           </r>
         </is>
       </c>
@@ -2183,7 +2183,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">12</t>
           </r>
         </is>
       </c>
@@ -2192,7 +2192,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">4000</t>
           </r>
         </is>
       </c>
@@ -2203,7 +2203,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">58OOO456</t>
+            <t xml:space="preserve">78938816</t>
           </r>
         </is>
       </c>
@@ -2212,7 +2212,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">ENERGIZANTE</t>
+            <t xml:space="preserve">COMESTIBLES</t>
           </r>
         </is>
       </c>
@@ -2221,7 +2221,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIEL</t>
+            <t xml:space="preserve">HALLS</t>
           </r>
         </is>
       </c>
@@ -2230,7 +2230,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15G</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -2239,7 +2239,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">MIEL </t>
+            <t xml:space="preserve">HALLS</t>
           </r>
         </is>
       </c>
@@ -2248,7 +2248,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10</t>
+            <t xml:space="preserve">24</t>
           </r>
         </is>
       </c>
@@ -2257,7 +2257,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">30000</t>
+            <t xml:space="preserve">3000</t>
           </r>
         </is>
       </c>
@@ -2268,7 +2268,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">9002490100070</t>
+            <t xml:space="preserve">7891008168884</t>
           </r>
         </is>
       </c>
@@ -2277,7 +2277,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">ENERGIZANTE</t>
+            <t xml:space="preserve">COMESTIBLES</t>
           </r>
         </is>
       </c>
@@ -2286,7 +2286,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">RED BULL</t>
+            <t xml:space="preserve">GAROTO</t>
           </r>
         </is>
       </c>
@@ -2304,7 +2304,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">ENERGIZANTE REB BULL</t>
+            <t xml:space="preserve">GAROTO LEITE</t>
           </r>
         </is>
       </c>
@@ -2313,7 +2313,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2322,7 +2322,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">13000</t>
+            <t xml:space="preserve">15000</t>
           </r>
         </is>
       </c>
@@ -2333,7 +2333,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7840058006608</t>
+            <t xml:space="preserve">57</t>
           </r>
         </is>
       </c>
@@ -2342,7 +2342,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">GASEOSA</t>
+            <t xml:space="preserve">COMESTIBLES</t>
           </r>
         </is>
       </c>
@@ -2351,7 +2351,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">COCA COLA</t>
+            <t xml:space="preserve">VARIOS</t>
           </r>
         </is>
       </c>
@@ -2369,7 +2369,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SPRITE 500ML</t>
+            <t xml:space="preserve">GALLETITAS</t>
           </r>
         </is>
       </c>
@@ -2378,7 +2378,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -2398,7 +2398,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10001</t>
+            <t xml:space="preserve">7896003738506</t>
           </r>
         </is>
       </c>
@@ -2407,7 +2407,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">GASEOSA</t>
+            <t xml:space="preserve">COMESTIBLES</t>
           </r>
         </is>
       </c>
@@ -2416,7 +2416,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">FANTA</t>
+            <t xml:space="preserve">MARILAN</t>
           </r>
         </is>
       </c>
@@ -2425,7 +2425,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">500ML</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -2434,7 +2434,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">FANTA NARANJA 500ML</t>
+            <t xml:space="preserve">GALLETITA MAIZENA</t>
           </r>
         </is>
       </c>
@@ -2443,7 +2443,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2463,7 +2463,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7840058003089</t>
+            <t xml:space="preserve">7891008169218</t>
           </r>
         </is>
       </c>
@@ -2472,7 +2472,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">GASEOSA</t>
+            <t xml:space="preserve">COMESTIBLES</t>
           </r>
         </is>
       </c>
@@ -2481,7 +2481,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">COCA COLA</t>
+            <t xml:space="preserve">GAROTO</t>
           </r>
         </is>
       </c>
@@ -2490,7 +2490,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">500ML</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -2499,7 +2499,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">FANTA GUARANA</t>
+            <t xml:space="preserve">CHOCOBARRA GAROTO 90G</t>
           </r>
         </is>
       </c>
@@ -2508,7 +2508,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">6</t>
           </r>
         </is>
       </c>
@@ -2517,7 +2517,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -2528,7 +2528,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7840058000019</t>
+            <t xml:space="preserve">77958921</t>
           </r>
         </is>
       </c>
@@ -2537,7 +2537,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">GASEOSA</t>
+            <t xml:space="preserve">COMESTIBLES</t>
           </r>
         </is>
       </c>
@@ -2546,7 +2546,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">COCA COLA</t>
+            <t xml:space="preserve">BOMBOM</t>
           </r>
         </is>
       </c>
@@ -2555,7 +2555,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">500ML</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -2564,7 +2564,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">COCA COLA 500 ML</t>
+            <t xml:space="preserve">BONBOM  X 3</t>
           </r>
         </is>
       </c>
@@ -2573,7 +2573,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2582,7 +2582,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6000</t>
+            <t xml:space="preserve">5000</t>
           </r>
         </is>
       </c>
@@ -2593,7 +2593,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">7622300807399</t>
           </r>
         </is>
       </c>
@@ -2602,7 +2602,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HIGUIENE</t>
+            <t xml:space="preserve">COMESTIBLES</t>
           </r>
         </is>
       </c>
@@ -2611,7 +2611,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SEDAL</t>
+            <t xml:space="preserve">BIS</t>
           </r>
         </is>
       </c>
@@ -2629,7 +2629,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SHANPOO Y ENJUAGE</t>
+            <t xml:space="preserve">BIS 126G</t>
           </r>
         </is>
       </c>
@@ -2638,7 +2638,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">60</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -2647,7 +2647,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -2658,7 +2658,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7500435154420</t>
+            <t xml:space="preserve">7790895643835</t>
           </r>
         </is>
       </c>
@@ -2667,7 +2667,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HIGUIENE</t>
+            <t xml:space="preserve">COMESTIBLES</t>
           </r>
         </is>
       </c>
@@ -2676,7 +2676,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PRESTOBARBA</t>
+            <t xml:space="preserve">ADES</t>
           </r>
         </is>
       </c>
@@ -2694,7 +2694,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PRESTOBARBA</t>
+            <t xml:space="preserve">ADES</t>
           </r>
         </is>
       </c>
@@ -2703,7 +2703,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
@@ -2712,7 +2712,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -2723,7 +2723,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">21</t>
+            <t xml:space="preserve">7840058002877</t>
           </r>
         </is>
       </c>
@@ -2732,7 +2732,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HIGUIENE</t>
+            <t xml:space="preserve">ENERGIZANTE</t>
           </r>
         </is>
       </c>
@@ -2741,7 +2741,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">COLGATE</t>
+            <t xml:space="preserve">POWER ADE</t>
           </r>
         </is>
       </c>
@@ -2759,7 +2759,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PASTA DENTAL</t>
+            <t xml:space="preserve">POWERADE 500ML</t>
           </r>
         </is>
       </c>
@@ -2768,7 +2768,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -2777,7 +2777,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -2788,7 +2788,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7840010201119</t>
+            <t xml:space="preserve">9002490100070</t>
           </r>
         </is>
       </c>
@@ -2797,7 +2797,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HIGUIENE</t>
+            <t xml:space="preserve">ENERGIZANTE</t>
           </r>
         </is>
       </c>
@@ -2806,7 +2806,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUX</t>
+            <t xml:space="preserve">RED BULL</t>
           </r>
         </is>
       </c>
@@ -2824,7 +2824,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JABON MAR</t>
+            <t xml:space="preserve">ENERGIZANTE REB BULL</t>
           </r>
         </is>
       </c>
@@ -2833,7 +2833,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
@@ -2842,7 +2842,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">6000</t>
+            <t xml:space="preserve">13000</t>
           </r>
         </is>
       </c>
@@ -2853,7 +2853,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7891055337349</t>
+            <t xml:space="preserve">7840058006608</t>
           </r>
         </is>
       </c>
@@ -2862,7 +2862,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">HIGUIENE</t>
+            <t xml:space="preserve">GASEOSA</t>
           </r>
         </is>
       </c>
@@ -2871,7 +2871,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CONDOR</t>
+            <t xml:space="preserve">COCA COLA</t>
           </r>
         </is>
       </c>
@@ -2889,7 +2889,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CEPILLO DENTAL</t>
+            <t xml:space="preserve">SPRITE 500ML</t>
           </r>
         </is>
       </c>
@@ -2898,7 +2898,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -2918,7 +2918,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7840058006691</t>
+            <t xml:space="preserve">7840058000040</t>
           </r>
         </is>
       </c>
@@ -2927,7 +2927,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JUGOS</t>
+            <t xml:space="preserve">GASEOSA</t>
           </r>
         </is>
       </c>
@@ -2936,7 +2936,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">FRUGOS</t>
+            <t xml:space="preserve">COCA COLA</t>
           </r>
         </is>
       </c>
@@ -2945,7 +2945,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">UNIDAD</t>
+            <t xml:space="preserve">500ML</t>
           </r>
         </is>
       </c>
@@ -2954,7 +2954,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">FRUGOS DURASNO 1L</t>
+            <t xml:space="preserve">FANTA NARANJA</t>
           </r>
         </is>
       </c>
@@ -2972,7 +2972,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -2983,7 +2983,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7840465000183</t>
+            <t xml:space="preserve">7840058003089</t>
           </r>
         </is>
       </c>
@@ -2992,7 +2992,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROTECCION</t>
+            <t xml:space="preserve">GASEOSA</t>
           </r>
         </is>
       </c>
@@ -3001,7 +3001,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PANTERA</t>
+            <t xml:space="preserve">COCA COLA</t>
           </r>
         </is>
       </c>
@@ -3010,7 +3010,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">UNIDAD</t>
+            <t xml:space="preserve">500ML</t>
           </r>
         </is>
       </c>
@@ -3019,7 +3019,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PANTERA CLASICO</t>
+            <t xml:space="preserve">FANTA GUARANA</t>
           </r>
         </is>
       </c>
@@ -3028,7 +3028,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">27</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -3037,7 +3037,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">8000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -3048,7 +3048,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7898540501780</t>
+            <t xml:space="preserve">7840058000019</t>
           </r>
         </is>
       </c>
@@ -3057,7 +3057,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROTECCION</t>
+            <t xml:space="preserve">GASEOSA</t>
           </r>
         </is>
       </c>
@@ -3066,7 +3066,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">COCA COLA</t>
           </r>
         </is>
       </c>
@@ -3075,7 +3075,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">UNIDAD</t>
+            <t xml:space="preserve">500ML</t>
           </r>
         </is>
       </c>
@@ -3084,7 +3084,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LUBRICANTE NUETRO</t>
+            <t xml:space="preserve">COCA COLA 500 ML</t>
           </r>
         </is>
       </c>
@@ -3093,7 +3093,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25</t>
+            <t xml:space="preserve">35</t>
           </r>
         </is>
       </c>
@@ -3102,7 +3102,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -3113,7 +3113,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CON</t>
+            <t xml:space="preserve">44</t>
           </r>
         </is>
       </c>
@@ -3122,7 +3122,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PROTECCION</t>
+            <t xml:space="preserve">HIGUIENE</t>
           </r>
         </is>
       </c>
@@ -3131,7 +3131,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CONTROL</t>
+            <t xml:space="preserve">NOSOTRAS</t>
           </r>
         </is>
       </c>
@@ -3140,7 +3140,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CAJA 3/U</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -3149,7 +3149,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">CONTROL TODOS</t>
+            <t xml:space="preserve">TOHALLITA INTIMA</t>
           </r>
         </is>
       </c>
@@ -3158,7 +3158,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">33</t>
+            <t xml:space="preserve">11</t>
           </r>
         </is>
       </c>
@@ -3167,7 +3167,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">12000</t>
+            <t xml:space="preserve">4000</t>
           </r>
         </is>
       </c>
@@ -3178,7 +3178,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1001</t>
+            <t xml:space="preserve">25</t>
           </r>
         </is>
       </c>
@@ -3187,7 +3187,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">REMEDIO</t>
+            <t xml:space="preserve">HIGUIENE</t>
           </r>
         </is>
       </c>
@@ -3196,7 +3196,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VARIOS</t>
+            <t xml:space="preserve">SEDAL</t>
           </r>
         </is>
       </c>
@@ -3214,7 +3214,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">YERON TABLETA</t>
+            <t xml:space="preserve">SHANPOO Y ENJUAGE</t>
           </r>
         </is>
       </c>
@@ -3223,7 +3223,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -3232,7 +3232,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -3243,7 +3243,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7792716246508</t>
+            <t xml:space="preserve">77947963</t>
           </r>
         </is>
       </c>
@@ -3252,7 +3252,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SIDRA</t>
+            <t xml:space="preserve">HIGUIENE</t>
           </r>
         </is>
       </c>
@@ -3261,7 +3261,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">LA FARRUCA</t>
+            <t xml:space="preserve">VARIOS</t>
           </r>
         </is>
       </c>
@@ -3270,7 +3270,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1LTS</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -3279,7 +3279,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SIDRA</t>
+            <t xml:space="preserve">SHAMPOO SEDAL 10ML</t>
           </r>
         </is>
       </c>
@@ -3288,7 +3288,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -3297,7 +3297,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -3308,7 +3308,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7791843008294</t>
+            <t xml:space="preserve">7500435154420</t>
           </r>
         </is>
       </c>
@@ -3317,7 +3317,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VINO</t>
+            <t xml:space="preserve">HIGUIENE</t>
           </r>
         </is>
       </c>
@@ -3326,7 +3326,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIÑA </t>
+            <t xml:space="preserve">PRESTOBARBA</t>
           </r>
         </is>
       </c>
@@ -3335,7 +3335,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1LTS</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -3344,7 +3344,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VIÑA DE BALDO 1L</t>
+            <t xml:space="preserve">PRESTOBARBA</t>
           </r>
         </is>
       </c>
@@ -3353,7 +3353,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
@@ -3362,7 +3362,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25000</t>
+            <t xml:space="preserve">5000</t>
           </r>
         </is>
       </c>
@@ -3373,7 +3373,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7804300120467</t>
+            <t xml:space="preserve">21</t>
           </r>
         </is>
       </c>
@@ -3382,7 +3382,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VINO</t>
+            <t xml:space="preserve">HIGUIENE</t>
           </r>
         </is>
       </c>
@@ -3391,7 +3391,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SANTA ELENA</t>
+            <t xml:space="preserve">COLGATE</t>
           </r>
         </is>
       </c>
@@ -3400,7 +3400,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1LTS</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -3409,7 +3409,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SANTA ELENA</t>
+            <t xml:space="preserve">PASTA DENTAL</t>
           </r>
         </is>
       </c>
@@ -3418,7 +3418,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -3427,7 +3427,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -3438,7 +3438,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7896037913849</t>
+            <t xml:space="preserve">7840010201119</t>
           </r>
         </is>
       </c>
@@ -3447,7 +3447,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VINO</t>
+            <t xml:space="preserve">HIGUIENE</t>
           </r>
         </is>
       </c>
@@ -3456,7 +3456,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">QUINTA</t>
+            <t xml:space="preserve">LUX</t>
           </r>
         </is>
       </c>
@@ -3465,7 +3465,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1LTS</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -3474,7 +3474,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">QUINTA 1L</t>
+            <t xml:space="preserve">JABON MAR</t>
           </r>
         </is>
       </c>
@@ -3483,7 +3483,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">-5</t>
           </r>
         </is>
       </c>
@@ -3492,7 +3492,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -3503,7 +3503,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">7790703100321</t>
+            <t xml:space="preserve">7840010037527</t>
           </r>
         </is>
       </c>
@@ -3512,7 +3512,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">VINO</t>
+            <t xml:space="preserve">HIGUIENE</t>
           </r>
         </is>
       </c>
@@ -3521,7 +3521,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DON VALENTIN</t>
+            <t xml:space="preserve">VARIOS</t>
           </r>
         </is>
       </c>
@@ -3539,7 +3539,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">DON VALENTIN</t>
+            <t xml:space="preserve">JABON LUX</t>
           </r>
         </is>
       </c>
@@ -3548,7 +3548,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">9</t>
           </r>
         </is>
       </c>
@@ -3557,7 +3557,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -3568,7 +3568,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000267096285</t>
+            <t xml:space="preserve">7891024132906</t>
           </r>
         </is>
       </c>
@@ -3577,7 +3577,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">WHISKY</t>
+            <t xml:space="preserve">HIGUIENE</t>
           </r>
         </is>
       </c>
@@ -3586,7 +3586,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SANDY MAC</t>
+            <t xml:space="preserve">COLGATE</t>
           </r>
         </is>
       </c>
@@ -3595,7 +3595,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">UNIDAD</t>
+            <t xml:space="preserve">50G</t>
           </r>
         </is>
       </c>
@@ -3604,7 +3604,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">SANDY MAC</t>
+            <t xml:space="preserve">COLGATE</t>
           </r>
         </is>
       </c>
@@ -3613,7 +3613,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -3622,7 +3622,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">50000</t>
+            <t xml:space="preserve">5000</t>
           </r>
         </is>
       </c>
@@ -3633,7 +3633,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000267015767</t>
+            <t xml:space="preserve">7891055337349</t>
           </r>
         </is>
       </c>
@@ -3642,7 +3642,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">WHISKY</t>
+            <t xml:space="preserve">HIGUIENE</t>
           </r>
         </is>
       </c>
@@ -3651,7 +3651,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JHONY</t>
+            <t xml:space="preserve">CONDOR</t>
           </r>
         </is>
       </c>
@@ -3660,7 +3660,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BOT. MINI</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -3669,7 +3669,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JHONY R. MINI</t>
+            <t xml:space="preserve">CEPILLO DENTAL</t>
           </r>
         </is>
       </c>
@@ -3678,7 +3678,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -3687,7 +3687,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">30000</t>
+            <t xml:space="preserve">6000</t>
           </r>
         </is>
       </c>
@@ -3698,7 +3698,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5000267025575</t>
+            <t xml:space="preserve">333</t>
           </r>
         </is>
       </c>
@@ -3707,7 +3707,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">WHISKY</t>
+            <t xml:space="preserve">JUGOS</t>
           </r>
         </is>
       </c>
@@ -3716,7 +3716,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JHONY</t>
+            <t xml:space="preserve">VARIOS</t>
           </r>
         </is>
       </c>
@@ -3725,7 +3725,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">BOT. MINI</t>
+            <t xml:space="preserve">UNIDAD</t>
           </r>
         </is>
       </c>
@@ -3734,7 +3734,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">JHONY N. MINI</t>
+            <t xml:space="preserve">JABON CABALLARO UNIPERSONAL</t>
           </r>
         </is>
       </c>
@@ -3743,7 +3743,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -3752,7 +3752,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">35000</t>
+            <t xml:space="preserve">1000</t>
           </r>
         </is>
       </c>
@@ -3763,7 +3763,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5010327208107</t>
+            <t xml:space="preserve">7840058006691</t>
           </r>
         </is>
       </c>
@@ -3772,7 +3772,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">WHISKY</t>
+            <t xml:space="preserve">JUGOS</t>
           </r>
         </is>
       </c>
@@ -3781,7 +3781,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">GRANT-S</t>
+            <t xml:space="preserve">FRUGOS</t>
           </r>
         </is>
       </c>
@@ -3799,7 +3799,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">GRANTS 200ML</t>
+            <t xml:space="preserve">FRUGOS DURASNO 1L</t>
           </r>
         </is>
       </c>
@@ -3808,7 +3808,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -3817,7 +3817,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">40000</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
@@ -3828,11 +3828,1896 @@
           <r>
             <rPr>
        </rPr>
+            <t xml:space="preserve">6956910700544</t>
+          </r>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VIBRADOR </t>
+          </r>
+        </is>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="59" customHeight="1" ht="20">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898675200190</t>
+          </r>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">POWER SHOCK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15ML</t>
+          </r>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">POWER SHOK MENTA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">55000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="60" customHeight="1" ht="20">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7840465000183</t>
+          </r>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PANTERA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PANTERA CLASICO</t>
+          </r>
+        </is>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5</t>
+          </r>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">8000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="61" customHeight="1" ht="20">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2156057190763</t>
+          </r>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VITAL HONEY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">MIEL ESTIMULANTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="62" customHeight="1" ht="20">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898540501780</t>
+          </r>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">LUBRICANTE NUETRO</t>
+          </r>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="63" customHeight="1" ht="20">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898540501346</t>
+          </r>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BENGALA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15G</t>
+          </r>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GEL RETARDANTE BENGALA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="64" customHeight="1" ht="20">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898540505160</t>
+          </r>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SEXY FANTASY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15G</t>
+          </r>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GEL RETARD PIKA TURBO</t>
+          </r>
+        </is>
+      </c>
+      <c r="F64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="65" customHeight="1" ht="20">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898675200312</t>
+          </r>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">YUMMY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15ML</t>
+          </r>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GEL PARA ORAL MENTA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="66" customHeight="1" ht="20">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898675200350</t>
+          </r>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">YUMMY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15ML</t>
+          </r>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GEL PARA ORAL CHICLETE</t>
+          </r>
+        </is>
+      </c>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="67" customHeight="1" ht="20">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898675200053</t>
+          </r>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SEXY FANTASY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15G</t>
+          </r>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GEL FEMENINO REDUCE</t>
+          </r>
+        </is>
+      </c>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G67" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="68" customHeight="1" ht="20">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7898675200039</t>
+          </r>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SEXY FANTASY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15G</t>
+          </r>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">GEL EXCITANTE FEMENINO ARDENTE</t>
+          </r>
+        </is>
+      </c>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G68" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">12000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="69" customHeight="1" ht="20">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CON</t>
+          </r>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CONTROL</t>
+          </r>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CAJA 3/U</t>
+          </r>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CONTROL TODOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">-8</t>
+          </r>
+        </is>
+      </c>
+      <c r="G69" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="70" customHeight="1" ht="20">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">92</t>
+          </r>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CONSOLADOR</t>
+          </r>
+        </is>
+      </c>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">-1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">75000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="71" customHeight="1" ht="20">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">95</t>
+          </r>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">PROTECCION</t>
+          </r>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BIBRADOR BULLET</t>
+          </r>
+        </is>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="72" customHeight="1" ht="20">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1001</t>
+          </r>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">REMEDIO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">YERON TABLETA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G72" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="73" customHeight="1" ht="20">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1002</t>
+          </r>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">REMEDIO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">ASPIRINA UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="F73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10</t>
+          </r>
+        </is>
+      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="74" customHeight="1" ht="20">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7793640211396</t>
+          </r>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">REMEDIO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VARIOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">ASPIRINA  TABLETA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G74" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="75" customHeight="1" ht="20">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7792716246508</t>
+          </r>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIDRA</t>
+          </r>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">LA FARRUCA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1LTS</t>
+          </r>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SIDRA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3</t>
+          </r>
+        </is>
+      </c>
+      <c r="G75" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">15000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="76" customHeight="1" ht="20">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7896037917243</t>
+          </r>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">QUINTA DE </t>
+          </r>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">UNIDAD</t>
+          </r>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO LATA QUITA </t>
+          </r>
+        </is>
+      </c>
+      <c r="F76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G76" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="77" customHeight="1" ht="20">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7791843008294</t>
+          </r>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VIÑA </t>
+          </r>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1LTS</t>
+          </r>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VIÑA DE BALDO 1L</t>
+          </r>
+        </is>
+      </c>
+      <c r="F77" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G77" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="78" customHeight="1" ht="20">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7804300120467</t>
+          </r>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SANTA ELENA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1LTS</t>
+          </r>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SANTA ELENA</t>
+          </r>
+        </is>
+      </c>
+      <c r="F78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G78" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="79" customHeight="1" ht="20">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7896037913849</t>
+          </r>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">QUINTA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1LTS</t>
+          </r>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">QUINTA 1L</t>
+          </r>
+        </is>
+      </c>
+      <c r="F79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G79" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="80" customHeight="1" ht="20">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">7791540053184</t>
+          </r>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">FREZZE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1LTS</t>
+          </r>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">FRIZZE 1L</t>
+          </r>
+        </is>
+      </c>
+      <c r="F80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">-1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G80" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="81" customHeight="1" ht="20">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">28</t>
+          </r>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">VINO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">FREZZE</t>
+          </r>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1LTS</t>
+          </r>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">FREZZE</t>
+          </r>
+        </is>
+      </c>
+      <c r="F81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">3</t>
+          </r>
+        </is>
+      </c>
+      <c r="G81" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">16000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="82" customHeight="1" ht="20">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">36</t>
+          </r>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SANDY MAC</t>
+          </r>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">SANDY M.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="F82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G82" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">50000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="83" customHeight="1" ht="20">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000267015767</t>
+          </r>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT. MINI</t>
+          </r>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY R. MINI</t>
+          </r>
+        </is>
+      </c>
+      <c r="F83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G83" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="84" customHeight="1" ht="20">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">67</t>
+          </r>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY R. 1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="F84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G84" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">70000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="85" customHeight="1" ht="20">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">31</t>
+          </r>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="E85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY N.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="F85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G85" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">85000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="86" customHeight="1" ht="20">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000267025575</t>
+          </r>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY</t>
+          </r>
+        </is>
+      </c>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT. MINI</t>
+          </r>
+        </is>
+      </c>
+      <c r="E86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">JHONY N. MINI</t>
+          </r>
+        </is>
+      </c>
+      <c r="F86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G86" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">35000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="87" customHeight="1" ht="20">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
             <t xml:space="preserve">33</t>
           </r>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
+      <c r="B87" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -3841,7 +5726,7 @@
           </r>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C87" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -3850,7 +5735,7 @@
           </r>
         </is>
       </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="D87" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -3859,7 +5744,7 @@
           </r>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E87" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -3868,7 +5753,7 @@
           </r>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F87" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -3877,7 +5762,7 @@
           </r>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G87" s="1" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -3887,14 +5772,209 @@
         </is>
       </c>
     </row>
-    <row r="59" customHeight="1" ht="180">
-      <c r="A59" s="2" t="inlineStr"/>
-      <c r="B59" s="2" t="inlineStr"/>
-      <c r="C59" s="2" t="inlineStr"/>
-      <c r="D59" s="2" t="inlineStr"/>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
+    <row r="88" customHeight="1" ht="20">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">41</t>
+          </r>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CHIVAS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CHIVAS.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="F88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G88" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">80000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="89" customHeight="1" ht="20">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">37</t>
+          </r>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CHIVAS</t>
+          </r>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT. MINI</t>
+          </r>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CHIVAS MINI</t>
+          </r>
+        </is>
+      </c>
+      <c r="F89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G89" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="90" customHeight="1" ht="20">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">5000265001199</t>
+          </r>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">WHISKY</t>
+          </r>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CABALLITO BLANCO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">BOT.1/4</t>
+          </r>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">CABALLITO BLANCO</t>
+          </r>
+        </is>
+      </c>
+      <c r="F90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">0</t>
+          </r>
+        </is>
+      </c>
+      <c r="G90" s="1" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+       </rPr>
+            <t xml:space="preserve">40000</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="91" customHeight="1" ht="180">
+      <c r="A91" s="2" t="inlineStr"/>
+      <c r="B91" s="2" t="inlineStr"/>
+      <c r="C91" s="2" t="inlineStr"/>
+      <c r="D91" s="2" t="inlineStr"/>
+      <c r="E91" s="2" t="inlineStr"/>
+      <c r="F91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
